--- a/results/mp/logistic/corona/confidence/84/desired-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/desired-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="143">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,7 +40,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>warned</t>
+    <t>killed</t>
   </si>
   <si>
     <t>war</t>
@@ -49,355 +49,400 @@
     <t>die</t>
   </si>
   <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>hell</t>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>problem</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>slash</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>falling</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>cuts</t>
+  </si>
+  <si>
     <t>recession</t>
   </si>
   <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>fake</t>
   </si>
   <si>
     <t>cancelled</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
+    <t>shame</t>
   </si>
   <si>
     <t>sick</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>no</t>
+  </si>
+  <si>
+    <t>fear</t>
   </si>
   <si>
     <t>worse</t>
   </si>
   <si>
-    <t>fear</t>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>cut</t>
   </si>
   <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>saudi</t>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>isolation</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
     <t>to</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>won</t>
   </si>
   <si>
     <t>create</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>god</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>growth</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>kind</t>
   </si>
   <si>
-    <t>please</t>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>security</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>easter</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>credit</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
     <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
 </sst>
 </file>
@@ -755,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -763,10 +808,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -845,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -895,16 +940,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.95</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -916,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -945,16 +990,16 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="K5">
-        <v>0.95</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -966,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -974,13 +1019,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9117647058823529</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -992,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K6">
         <v>0.9444444444444444</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1016,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1024,13 +1069,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8888888888888888</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1042,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="K7">
-        <v>0.9375</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1066,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1074,13 +1119,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1095,16 +1140,16 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="K8">
-        <v>0.9333333333333333</v>
+        <v>0.9375</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1145,16 +1190,16 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="K9">
-        <v>0.9322033898305084</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L9">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="M9">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1166,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1174,13 +1219,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.863013698630137</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C10">
-        <v>252</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>252</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1192,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="K10">
-        <v>0.9268929503916449</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L10">
-        <v>355</v>
+        <v>24</v>
       </c>
       <c r="M10">
-        <v>355</v>
+        <v>24</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1216,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1224,13 +1269,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8275862068965517</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1242,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="K11">
-        <v>0.9230769230769231</v>
+        <v>0.9112271540469974</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>349</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>349</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1266,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1274,13 +1319,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8260869565217391</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1295,7 +1340,7 @@
         <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K12">
         <v>0.9090909090909091</v>
@@ -1324,13 +1369,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8076923076923077</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1345,7 +1390,7 @@
         <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="K13">
         <v>0.9069767441860465</v>
@@ -1374,13 +1419,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1392,19 +1437,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K14">
-        <v>0.9014084507042254</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L14">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="M14">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1416,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1424,13 +1469,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1445,16 +1490,16 @@
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K15">
-        <v>0.8947368421052632</v>
+        <v>0.8943661971830986</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1466,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1474,13 +1519,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7894736842105263</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1495,7 +1540,7 @@
         <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K16">
         <v>0.8936170212765957</v>
@@ -1524,13 +1569,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7666666666666667</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1542,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K17">
         <v>0.8928571428571429</v>
@@ -1574,7 +1619,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7647058823529411</v>
+        <v>0.8125</v>
       </c>
       <c r="C18">
         <v>13</v>
@@ -1592,10 +1637,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K18">
         <v>0.890625</v>
@@ -1624,13 +1669,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.75</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1642,19 +1687,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="K19">
         <v>0.8888888888888888</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1666,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1674,13 +1719,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7419354838709677</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1692,19 +1737,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K20">
-        <v>0.86875</v>
+        <v>0.8875</v>
       </c>
       <c r="L20">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M20">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1716,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1724,13 +1769,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7391304347826086</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1742,19 +1787,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K21">
-        <v>0.8679245283018868</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L21">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M21">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1766,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1774,13 +1819,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7391304347826086</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1792,19 +1837,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K22">
-        <v>0.8620689655172413</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L22">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="M22">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1816,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1824,13 +1869,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7368421052631579</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1842,10 +1887,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K23">
         <v>0.8611111111111112</v>
@@ -1874,7 +1919,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7037037037037037</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C24">
         <v>19</v>
@@ -1892,19 +1937,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K24">
-        <v>0.8536585365853658</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L24">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="M24">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1916,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1924,13 +1969,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6957364341085271</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C25">
-        <v>359</v>
+        <v>28</v>
       </c>
       <c r="D25">
-        <v>359</v>
+        <v>28</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1942,19 +1987,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K25">
-        <v>0.8235294117647058</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1966,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1974,13 +2019,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6949152542372882</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C26">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D26">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1992,10 +2037,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K26">
         <v>0.8214285714285714</v>
@@ -2024,13 +2069,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6923076923076923</v>
+        <v>0.7</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2042,31 +2087,31 @@
         <v>0</v>
       </c>
       <c r="H27">
+        <v>12</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K27">
+        <v>0.8</v>
+      </c>
+      <c r="L27">
+        <v>32</v>
+      </c>
+      <c r="M27">
+        <v>32</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>8</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K27">
-        <v>0.8095238095238095</v>
-      </c>
-      <c r="L27">
-        <v>51</v>
-      </c>
-      <c r="M27">
-        <v>51</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2074,13 +2119,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6878306878306878</v>
+        <v>0.7</v>
       </c>
       <c r="C28">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2092,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="K28">
-        <v>0.8</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L28">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2116,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2124,13 +2169,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6862745098039216</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D29">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2142,19 +2187,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K29">
-        <v>0.7948717948717948</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2166,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2174,13 +2219,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6842105263157895</v>
+        <v>0.6937984496124031</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>358</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>358</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2192,19 +2237,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K30">
-        <v>0.7916666666666666</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L30">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2216,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2224,13 +2269,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6818181818181818</v>
+        <v>0.6878306878306878</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2242,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="K31">
-        <v>0.7894736842105263</v>
+        <v>0.7705882352941177</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>262</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>262</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2266,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>4</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2274,13 +2319,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.65625</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C32">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2292,19 +2337,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="K32">
-        <v>0.78</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L32">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2316,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2327,10 +2372,10 @@
         <v>0.65</v>
       </c>
       <c r="C33">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2342,19 +2387,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K33">
-        <v>0.7777777777777778</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2366,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2374,13 +2419,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.6410256410256411</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2392,19 +2437,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="K34">
-        <v>0.7617647058823529</v>
+        <v>0.75</v>
       </c>
       <c r="L34">
-        <v>259</v>
+        <v>18</v>
       </c>
       <c r="M34">
-        <v>259</v>
+        <v>18</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2416,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2424,13 +2469,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.6308724832214765</v>
+        <v>0.6442953020134228</v>
       </c>
       <c r="C35">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D35">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2442,19 +2487,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="K35">
         <v>0.75</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2466,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2474,13 +2519,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.625</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2492,19 +2537,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="K36">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M36">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2516,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2545,16 +2590,16 @@
         <v>10</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="K37">
-        <v>0.7428571428571429</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="L37">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2566,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2574,13 +2619,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5833333333333334</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D38">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2595,16 +2640,16 @@
         <v>15</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K38">
-        <v>0.7391304347826086</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2616,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2624,13 +2669,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5777777777777777</v>
+        <v>0.59375</v>
       </c>
       <c r="C39">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2642,19 +2687,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="K39">
-        <v>0.7322033898305085</v>
+        <v>0.7071129707112971</v>
       </c>
       <c r="L39">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="M39">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2666,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2674,13 +2719,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5675675675675675</v>
+        <v>0.5805555555555556</v>
       </c>
       <c r="C40">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="D40">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2692,19 +2737,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="K40">
-        <v>0.7083333333333334</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2716,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2724,13 +2769,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5384615384615384</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C41">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2742,19 +2787,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K41">
-        <v>0.7071129707112971</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L41">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2766,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2774,13 +2819,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5178571428571429</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C42">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D42">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2792,19 +2837,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K42">
-        <v>0.7037037037037037</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="M42">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2816,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2824,13 +2869,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.5161290322580645</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="C43">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D43">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2842,31 +2887,31 @@
         <v>0</v>
       </c>
       <c r="H43">
+        <v>27</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K43">
+        <v>0.7</v>
+      </c>
+      <c r="L43">
+        <v>35</v>
+      </c>
+      <c r="M43">
+        <v>35</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>15</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K43">
-        <v>0.7037037037037037</v>
-      </c>
-      <c r="L43">
-        <v>19</v>
-      </c>
-      <c r="M43">
-        <v>19</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2874,13 +2919,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.48</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C44">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D44">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2892,19 +2937,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K44">
-        <v>0.696969696969697</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L44">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2916,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2924,13 +2969,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4363636363636363</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C45">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D45">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2942,19 +2987,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K45">
-        <v>0.6853932584269663</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L45">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2966,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2974,13 +3019,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4193548387096774</v>
+        <v>0.48</v>
       </c>
       <c r="C46">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D46">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2992,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K46">
         <v>0.6818181818181818</v>
@@ -3024,13 +3069,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4111111111111111</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C47">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D47">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3042,10 +3087,10 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K47">
         <v>0.6785714285714286</v>
@@ -3074,38 +3119,38 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.4</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C48">
+        <v>17</v>
+      </c>
+      <c r="D48">
+        <v>17</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>19</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K48">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L48">
         <v>22</v>
       </c>
-      <c r="D48">
+      <c r="M48">
         <v>22</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>33</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K48">
-        <v>0.6702127659574468</v>
-      </c>
-      <c r="L48">
-        <v>63</v>
-      </c>
-      <c r="M48">
-        <v>63</v>
-      </c>
       <c r="N48">
         <v>1</v>
       </c>
@@ -3116,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3124,13 +3169,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3116883116883117</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C49">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3142,19 +3187,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K49">
-        <v>0.6666666666666666</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L49">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="M49">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3166,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3174,13 +3219,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2976190476190476</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C50">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="D50">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3192,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K50">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L50">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M50">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3216,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3224,13 +3269,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.175</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="C51">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D51">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3242,19 +3287,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K51">
-        <v>0.6615384615384615</v>
+        <v>0.6292134831460674</v>
       </c>
       <c r="L51">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M51">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3266,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3274,13 +3319,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1662198391420912</v>
+        <v>0.325</v>
       </c>
       <c r="C52">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D52">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3292,19 +3337,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>311</v>
+        <v>27</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="K52">
-        <v>0.6285714285714286</v>
+        <v>0.625</v>
       </c>
       <c r="L52">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3316,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3324,37 +3369,37 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004834031582339671</v>
+        <v>0.325</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D53">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E53">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>3088</v>
+        <v>54</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K53">
-        <v>0.6222222222222222</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L53">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M53">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3366,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3374,28 +3419,28 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.003469812630117973</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E54">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>4308</v>
+        <v>172</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K54">
         <v>0.6190476190476191</v>
@@ -3420,8 +3465,32 @@
       </c>
     </row>
     <row r="55" spans="1:17">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="C55">
+        <v>15</v>
+      </c>
+      <c r="D55">
+        <v>15</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>36</v>
+      </c>
       <c r="J55" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K55">
         <v>0.6153846153846154</v>
@@ -3446,17 +3515,41 @@
       </c>
     </row>
     <row r="56" spans="1:17">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.2888888888888889</v>
+      </c>
+      <c r="C56">
+        <v>26</v>
+      </c>
+      <c r="D56">
+        <v>26</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>64</v>
+      </c>
       <c r="J56" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K56">
-        <v>0.6071428571428571</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L56">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M56">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3468,21 +3561,45 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:17">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.1823056300268097</v>
+      </c>
+      <c r="C57">
+        <v>68</v>
+      </c>
+      <c r="D57">
+        <v>68</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>305</v>
+      </c>
       <c r="J57" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K57">
-        <v>0.5833333333333334</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L57">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M57">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3498,43 +3615,91 @@
       </c>
     </row>
     <row r="58" spans="1:17">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.07666666666666666</v>
+      </c>
+      <c r="C58">
+        <v>23</v>
+      </c>
+      <c r="D58">
+        <v>23</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>277</v>
+      </c>
       <c r="J58" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K58">
-        <v>0.5714285714285714</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="L58">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M58">
         <v>24</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
         <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:17">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.01836158192090396</v>
+      </c>
+      <c r="C59">
+        <v>13</v>
+      </c>
+      <c r="D59">
+        <v>13</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>695</v>
+      </c>
       <c r="J59" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K59">
-        <v>0.5652173913043478</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M59">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3546,12 +3711,36 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:17">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.01009676062263357</v>
+      </c>
+      <c r="C60">
+        <v>24</v>
+      </c>
+      <c r="D60">
+        <v>26</v>
+      </c>
+      <c r="E60">
+        <v>0.08</v>
+      </c>
+      <c r="F60">
+        <v>0.92</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>2353</v>
+      </c>
       <c r="J60" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K60">
         <v>0.5384615384615384</v>
@@ -3576,95 +3765,167 @@
       </c>
     </row>
     <row r="61" spans="1:17">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.00676328502415459</v>
+      </c>
+      <c r="C61">
+        <v>21</v>
+      </c>
+      <c r="D61">
+        <v>23</v>
+      </c>
+      <c r="E61">
+        <v>0.09</v>
+      </c>
+      <c r="F61">
+        <v>0.91</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>3084</v>
+      </c>
       <c r="J61" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K61">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="L61">
+        <v>24</v>
+      </c>
+      <c r="M61">
+        <v>24</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.003243744207599629</v>
+      </c>
+      <c r="C62">
+        <v>14</v>
+      </c>
+      <c r="D62">
+        <v>26</v>
+      </c>
+      <c r="E62">
+        <v>0.46</v>
+      </c>
+      <c r="F62">
+        <v>0.54</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>4302</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K62">
+        <v>0.5205479452054794</v>
+      </c>
+      <c r="L62">
+        <v>38</v>
+      </c>
+      <c r="M62">
+        <v>38</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.003104987385988744</v>
+      </c>
+      <c r="C63">
+        <v>16</v>
+      </c>
+      <c r="D63">
+        <v>28</v>
+      </c>
+      <c r="E63">
+        <v>0.43</v>
+      </c>
+      <c r="F63">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>5137</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K63">
         <v>0.5161290322580645</v>
       </c>
-      <c r="L61">
+      <c r="L63">
         <v>16</v>
       </c>
-      <c r="M61">
+      <c r="M63">
         <v>16</v>
       </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61">
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
         <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="J62" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K62">
-        <v>0.515625</v>
-      </c>
-      <c r="L62">
-        <v>33</v>
-      </c>
-      <c r="M62">
-        <v>33</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="J63" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K63">
-        <v>0.5068493150684932</v>
-      </c>
-      <c r="L63">
-        <v>37</v>
-      </c>
-      <c r="M63">
-        <v>37</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K64">
-        <v>0.4487179487179487</v>
+        <v>0.515625</v>
       </c>
       <c r="L64">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M64">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3676,21 +3937,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K65">
-        <v>0.3823529411764706</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L65">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M65">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3702,47 +3963,47 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="K66">
-        <v>0.3770491803278688</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="L66">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M66">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K67">
-        <v>0.3684210526315789</v>
+        <v>0.2954545454545455</v>
       </c>
       <c r="L67">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M67">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3754,21 +4015,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="K68">
-        <v>0.3559322033898305</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L68">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M68">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3780,21 +4041,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="K69">
-        <v>0.1559633027522936</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L69">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M69">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3806,7 +4067,163 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>92</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K70">
+        <v>0.1296296296296296</v>
+      </c>
+      <c r="L70">
+        <v>14</v>
+      </c>
+      <c r="M70">
+        <v>15</v>
+      </c>
+      <c r="N70">
+        <v>0.93</v>
+      </c>
+      <c r="O70">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K71">
+        <v>0.1048387096774194</v>
+      </c>
+      <c r="L71">
+        <v>13</v>
+      </c>
+      <c r="M71">
+        <v>13</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K72">
+        <v>0.0972972972972973</v>
+      </c>
+      <c r="L72">
+        <v>18</v>
+      </c>
+      <c r="M72">
+        <v>18</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K73">
+        <v>0.03365384615384615</v>
+      </c>
+      <c r="L73">
+        <v>14</v>
+      </c>
+      <c r="M73">
+        <v>14</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K74">
+        <v>0.02504173622704508</v>
+      </c>
+      <c r="L74">
+        <v>30</v>
+      </c>
+      <c r="M74">
+        <v>32</v>
+      </c>
+      <c r="N74">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O74">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K75">
+        <v>0.006746626686656672</v>
+      </c>
+      <c r="L75">
+        <v>18</v>
+      </c>
+      <c r="M75">
+        <v>23</v>
+      </c>
+      <c r="N75">
+        <v>0.78</v>
+      </c>
+      <c r="O75">
+        <v>0.22</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>2650</v>
       </c>
     </row>
   </sheetData>
